--- a/analysis/xlsx/2023/2023_연령대별_판매량.xlsx
+++ b/analysis/xlsx/2023/2023_연령대별_판매량.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1109919000</v>
+        <v>1191185000</v>
       </c>
       <c r="D3" t="n">
-        <v>1341403550</v>
+        <v>1428485050</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1161946000</v>
+        <v>1098279000</v>
       </c>
       <c r="D4" t="n">
-        <v>1385986050</v>
+        <v>1314020550</v>
       </c>
     </row>
     <row r="5">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>748382000</v>
+        <v>730783000</v>
       </c>
       <c r="D5" t="n">
-        <v>896286000</v>
+        <v>881170000</v>
       </c>
     </row>
   </sheetData>
